--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.321098287089238</v>
+        <v>0.1293393333333333</v>
       </c>
       <c r="H2">
-        <v>0.321098287089238</v>
+        <v>0.388018</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1029778321305656</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1029778321305656</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N2">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O2">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P2">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q2">
-        <v>52.21814736653178</v>
+        <v>21.939758424628</v>
       </c>
       <c r="R2">
-        <v>52.21814736653178</v>
+        <v>197.457825821652</v>
       </c>
       <c r="S2">
-        <v>0.7561108497217072</v>
+        <v>0.07649581924024407</v>
       </c>
       <c r="T2">
-        <v>0.7561108497217072</v>
+        <v>0.07649581924024407</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.321098287089238</v>
+        <v>0.1293393333333333</v>
       </c>
       <c r="H3">
-        <v>0.321098287089238</v>
+        <v>0.388018</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1029778321305656</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1029778321305656</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P3">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q3">
-        <v>0.2999955719918755</v>
+        <v>0.1273831621428889</v>
       </c>
       <c r="R3">
-        <v>0.2999955719918755</v>
+        <v>1.146448459286</v>
       </c>
       <c r="S3">
-        <v>0.004343890357874106</v>
+        <v>0.0004441379506984409</v>
       </c>
       <c r="T3">
-        <v>0.004343890357874106</v>
+        <v>0.0004441379506984408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.321098287089238</v>
+        <v>0.1293393333333333</v>
       </c>
       <c r="H4">
-        <v>0.321098287089238</v>
+        <v>0.388018</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1029778321305656</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1029778321305656</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N4">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O4">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P4">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q4">
-        <v>16.04794862791089</v>
+        <v>7.064611649845334</v>
       </c>
       <c r="R4">
-        <v>16.04794862791089</v>
+        <v>63.581504848608</v>
       </c>
       <c r="S4">
-        <v>0.2323718608430961</v>
+        <v>0.02463168669908699</v>
       </c>
       <c r="T4">
-        <v>0.2323718608430961</v>
+        <v>0.02463168669908698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1293393333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.388018</v>
+      </c>
+      <c r="I5">
+        <v>0.1029778321305656</v>
+      </c>
+      <c r="J5">
+        <v>0.1029778321305656</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3.118221666666667</v>
+      </c>
+      <c r="N5">
+        <v>9.354665000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.01365525192599884</v>
+      </c>
+      <c r="P5">
+        <v>0.01365525192599884</v>
+      </c>
+      <c r="Q5">
+        <v>0.4033087115522223</v>
+      </c>
+      <c r="R5">
+        <v>3.62977840397</v>
+      </c>
+      <c r="S5">
+        <v>0.001406188240536091</v>
+      </c>
+      <c r="T5">
+        <v>0.001406188240536091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3710633333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.11319</v>
+      </c>
+      <c r="I6">
+        <v>0.2954344719817748</v>
+      </c>
+      <c r="J6">
+        <v>0.2954344719817748</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>169.629438</v>
+      </c>
+      <c r="N6">
+        <v>508.888314</v>
+      </c>
+      <c r="O6">
+        <v>0.7428377317484701</v>
+      </c>
+      <c r="P6">
+        <v>0.7428377317484702</v>
+      </c>
+      <c r="Q6">
+        <v>62.94326469573999</v>
+      </c>
+      <c r="R6">
+        <v>566.4893822616599</v>
+      </c>
+      <c r="S6">
+        <v>0.2194598730472485</v>
+      </c>
+      <c r="T6">
+        <v>0.2194598730472486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3710633333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.11319</v>
+      </c>
+      <c r="I7">
+        <v>0.2954344719817748</v>
+      </c>
+      <c r="J7">
+        <v>0.2954344719817748</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9848756666666668</v>
+      </c>
+      <c r="N7">
+        <v>2.954627</v>
+      </c>
+      <c r="O7">
+        <v>0.004312947180081616</v>
+      </c>
+      <c r="P7">
+        <v>0.004312947180081616</v>
+      </c>
+      <c r="Q7">
+        <v>0.3654512477922223</v>
+      </c>
+      <c r="R7">
+        <v>3.28906123013</v>
+      </c>
+      <c r="S7">
+        <v>0.001274193272832697</v>
+      </c>
+      <c r="T7">
+        <v>0.001274193272832697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3710633333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.11319</v>
+      </c>
+      <c r="I8">
+        <v>0.2954344719817748</v>
+      </c>
+      <c r="J8">
+        <v>0.2954344719817748</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>54.620752</v>
+      </c>
+      <c r="N8">
+        <v>163.862256</v>
+      </c>
+      <c r="O8">
+        <v>0.2391940691454494</v>
+      </c>
+      <c r="P8">
+        <v>0.2391940691454494</v>
+      </c>
+      <c r="Q8">
+        <v>20.26775830629333</v>
+      </c>
+      <c r="R8">
+        <v>182.40982475664</v>
+      </c>
+      <c r="S8">
+        <v>0.07066617351915797</v>
+      </c>
+      <c r="T8">
+        <v>0.07066617351915797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3710633333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.11319</v>
+      </c>
+      <c r="I9">
+        <v>0.2954344719817748</v>
+      </c>
+      <c r="J9">
+        <v>0.2954344719817748</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.118221666666667</v>
+      </c>
+      <c r="N9">
+        <v>9.354665000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.01365525192599884</v>
+      </c>
+      <c r="P9">
+        <v>0.01365525192599884</v>
+      </c>
+      <c r="Q9">
+        <v>1.157057725705555</v>
+      </c>
+      <c r="R9">
+        <v>10.41351953135</v>
+      </c>
+      <c r="S9">
+        <v>0.004034232142535581</v>
+      </c>
+      <c r="T9">
+        <v>0.004034232142535581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.321098287089238</v>
-      </c>
-      <c r="H5">
-        <v>0.321098287089238</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.5428474724094</v>
-      </c>
-      <c r="N5">
-        <v>1.5428474724094</v>
-      </c>
-      <c r="O5">
-        <v>0.00717339907732266</v>
-      </c>
-      <c r="P5">
-        <v>0.00717339907732266</v>
-      </c>
-      <c r="Q5">
-        <v>0.4954056806306187</v>
-      </c>
-      <c r="R5">
-        <v>0.4954056806306187</v>
-      </c>
-      <c r="S5">
-        <v>0.00717339907732266</v>
-      </c>
-      <c r="T5">
-        <v>0.00717339907732266</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7555893333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.266768</v>
+      </c>
+      <c r="I10">
+        <v>0.6015876958876597</v>
+      </c>
+      <c r="J10">
+        <v>0.6015876958876597</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>169.629438</v>
+      </c>
+      <c r="N10">
+        <v>508.888314</v>
+      </c>
+      <c r="O10">
+        <v>0.7428377317484701</v>
+      </c>
+      <c r="P10">
+        <v>0.7428377317484702</v>
+      </c>
+      <c r="Q10">
+        <v>128.170193972128</v>
+      </c>
+      <c r="R10">
+        <v>1153.531745749152</v>
+      </c>
+      <c r="S10">
+        <v>0.4468820394609776</v>
+      </c>
+      <c r="T10">
+        <v>0.4468820394609777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7555893333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.266768</v>
+      </c>
+      <c r="I11">
+        <v>0.6015876958876597</v>
+      </c>
+      <c r="J11">
+        <v>0.6015876958876597</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9848756666666668</v>
+      </c>
+      <c r="N11">
+        <v>2.954627</v>
+      </c>
+      <c r="O11">
+        <v>0.004312947180081616</v>
+      </c>
+      <c r="P11">
+        <v>0.004312947180081616</v>
+      </c>
+      <c r="Q11">
+        <v>0.7441615483928891</v>
+      </c>
+      <c r="R11">
+        <v>6.697453935536002</v>
+      </c>
+      <c r="S11">
+        <v>0.002594615956550478</v>
+      </c>
+      <c r="T11">
+        <v>0.002594615956550478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7555893333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.266768</v>
+      </c>
+      <c r="I12">
+        <v>0.6015876958876597</v>
+      </c>
+      <c r="J12">
+        <v>0.6015876958876597</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>54.620752</v>
+      </c>
+      <c r="N12">
+        <v>163.862256</v>
+      </c>
+      <c r="O12">
+        <v>0.2391940691454494</v>
+      </c>
+      <c r="P12">
+        <v>0.2391940691454494</v>
+      </c>
+      <c r="Q12">
+        <v>41.27085758984534</v>
+      </c>
+      <c r="R12">
+        <v>371.4377183086081</v>
+      </c>
+      <c r="S12">
+        <v>0.1438962089272044</v>
+      </c>
+      <c r="T12">
+        <v>0.1438962089272044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7555893333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.266768</v>
+      </c>
+      <c r="I13">
+        <v>0.6015876958876597</v>
+      </c>
+      <c r="J13">
+        <v>0.6015876958876597</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.118221666666667</v>
+      </c>
+      <c r="N13">
+        <v>9.354665000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.01365525192599884</v>
+      </c>
+      <c r="P13">
+        <v>0.01365525192599884</v>
+      </c>
+      <c r="Q13">
+        <v>2.356095030302223</v>
+      </c>
+      <c r="R13">
+        <v>21.20485527272</v>
+      </c>
+      <c r="S13">
+        <v>0.008214831542927171</v>
+      </c>
+      <c r="T13">
+        <v>0.008214831542927171</v>
       </c>
     </row>
   </sheetData>
